--- a/src/main/load_files/Dep.xlsx
+++ b/src/main/load_files/Dep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\nicom-mvc\src\main\load_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34931571-F8D5-4A37-8332-A7D6384BA493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF30D76-3FA6-4DB5-99B6-BEC55C078CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1560" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="795" windowWidth="28305" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ВСЯ техника ред" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="269">
   <si>
     <t>Список отделений: "Обращайтесь к нам и мы вам обязательно поможем" !</t>
   </si>
@@ -53,28 +53,10 @@
     <t>СВАО</t>
   </si>
   <si>
-    <t>Алтуфьево -М12</t>
-  </si>
-  <si>
     <t>10-20</t>
   </si>
   <si>
     <t>11-18</t>
-  </si>
-  <si>
-    <t>Мурановская ул. д.12</t>
-  </si>
-  <si>
-    <t>Вся техника,              заправка картриджей</t>
-  </si>
-  <si>
-    <t>495-926-72-26</t>
-  </si>
-  <si>
-    <t>м.Алтуфьево - последний вагон из центра, в переходе налево, по левой лестнице, выход к Макдональдсу, далее пешком 8 мин до Торгового Центра "Будапешт", либо на любом транспорте 3-4 минуты. Вход с угла серого 12-ти этажного жилого дома.        Вывеска:  "Ремонт мобильной техники"</t>
-  </si>
-  <si>
-    <t>СТ12</t>
   </si>
   <si>
     <t>Медведково - СТ12</t>
@@ -857,9 +839,6 @@
     <t>Первый вагон из центра, в переходе направо, по левой леснице на улицу. Далее по Ясногорской улице, перед домом 19 повернуть налево. Вывеска "ФОТО" рядом с аптекой.</t>
   </si>
   <si>
-    <t>М12</t>
-  </si>
-  <si>
     <t>Преображенская Площадь -ПВ1</t>
   </si>
   <si>
@@ -867,6 +846,9 @@
   </si>
   <si>
     <t>сб 11-17,  вск -вых</t>
+  </si>
+  <si>
+    <t>СТ13</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1603,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1685,21 +1667,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="52.5" customHeight="1">
+    <row r="3" spans="1:10" ht="51">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -1717,244 +1699,244 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10" ht="33">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="33">
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="44.25" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H5" s="18"/>
       <c r="I5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="44.25" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="J5" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33">
+    <row r="7" spans="1:10" ht="48" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>41</v>
       </c>
+      <c r="F7" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="I7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
+      <c r="J8" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.25" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>56</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="23.25" customHeight="1">
       <c r="A10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="J10" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>70</v>
@@ -1963,95 +1945,93 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="23.25" customHeight="1">
+    <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="D12" s="12" t="s">
         <v>75</v>
       </c>
+      <c r="E12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="G12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A13" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="J12" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="B13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="C13" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="D13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>83</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="18"/>
       <c r="I14" s="15" t="s">
         <v>90</v>
       </c>
@@ -2059,39 +2039,39 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>86</v>
+    <row r="15" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>98</v>
@@ -2100,245 +2080,215 @@
         <v>99</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>11</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>101</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="I16" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>86</v>
+      <c r="A17" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="C17" s="12" t="s">
         <v>107</v>
       </c>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="G17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>110</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>117</v>
       </c>
+      <c r="I18" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="J18" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="28" t="s">
+      <c r="D19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>122</v>
       </c>
+      <c r="F19" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="G19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="31" t="s">
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="D20" s="32" t="s">
         <v>129</v>
       </c>
+      <c r="E20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1">
-      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="15" t="s">
         <v>132</v>
       </c>
+      <c r="J20" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="B21" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="20" t="s">
         <v>137</v>
       </c>
+      <c r="F21" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="G21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="J21" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="20" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="38.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="69"/>
+      <c r="F22" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37" t="s">
         <v>145</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="38.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H18">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(H19))=0</formula>
+      <formula>LEN(TRIM(H18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.10370654887651241" right="0.10370654887651241" top="0.31062768007888963" bottom="0.25515845149337363" header="0" footer="0"/>
@@ -2354,7 +2304,7 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2406,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>7</v>
@@ -2417,624 +2367,624 @@
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="49.5">
       <c r="A4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="29.25" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="49.5">
       <c r="A8" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1">
       <c r="A9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>189</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="46" t="s">
         <v>196</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="37.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="33.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29.25" customHeight="1">
       <c r="A14" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" s="51" t="s">
         <v>221</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="49.5">
       <c r="A15" s="43" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="45" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31.5" customHeight="1">
       <c r="A16" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="23" t="s">
         <v>233</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="46.5" customHeight="1">
       <c r="A17" s="43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H17" s="55"/>
       <c r="I17" s="45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="34.5" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H18" s="58" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="35.25" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="45" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51">
       <c r="A20" s="43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="J20" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="36" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="J21" s="62" t="s">
         <v>264</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="J21" s="62" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
       <c r="C22" s="63" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="64" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="65" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
